--- a/final report/statistics.xlsx
+++ b/final report/statistics.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QADEV07\Selenium\roRepo\JmeterPivotal\final report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="575"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8985" tabRatio="575"/>
   </bookViews>
   <sheets>
     <sheet name="Conclusion" sheetId="2" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <sheet name="workflow9" sheetId="11" r:id="rId10"/>
     <sheet name="workflow10" sheetId="5" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -585,7 +580,6 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -602,6 +596,7 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1147,11 +1142,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="326755704"/>
-        <c:axId val="326756096"/>
+        <c:axId val="98977280"/>
+        <c:axId val="41880960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="326755704"/>
+        <c:axId val="98977280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326756096"/>
+        <c:crossAx val="41880960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326756096"/>
+        <c:axId val="41880960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326755704"/>
+        <c:crossAx val="98977280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,11 +1294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329560144"/>
-        <c:axId val="329555832"/>
+        <c:axId val="43675136"/>
+        <c:axId val="43634048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329560144"/>
+        <c:axId val="43675136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329555832"/>
+        <c:crossAx val="43634048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329555832"/>
+        <c:axId val="43634048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329560144"/>
+        <c:crossAx val="43675136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1451,11 +1446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329557792"/>
-        <c:axId val="329564456"/>
+        <c:axId val="43795968"/>
+        <c:axId val="43636352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329557792"/>
+        <c:axId val="43795968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +1460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329564456"/>
+        <c:crossAx val="43636352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1473,7 +1468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329564456"/>
+        <c:axId val="43636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329557792"/>
+        <c:crossAx val="43795968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1603,11 +1598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329555440"/>
-        <c:axId val="329562496"/>
+        <c:axId val="43797504"/>
+        <c:axId val="44163072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329555440"/>
+        <c:axId val="43797504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329562496"/>
+        <c:crossAx val="44163072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1625,7 +1620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329562496"/>
+        <c:axId val="44163072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329555440"/>
+        <c:crossAx val="43797504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1707,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>673.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,7 +1735,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2166.6666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,11 +1750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329558576"/>
-        <c:axId val="329563672"/>
+        <c:axId val="44503040"/>
+        <c:axId val="44166528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329558576"/>
+        <c:axId val="44503040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +1764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329563672"/>
+        <c:crossAx val="44166528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1777,7 +1772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329563672"/>
+        <c:axId val="44166528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329558576"/>
+        <c:crossAx val="44503040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1864,7 +1859,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1786.3999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,7 +1887,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3415.3666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,11 +1902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329568376"/>
-        <c:axId val="329567984"/>
+        <c:axId val="44504576"/>
+        <c:axId val="44168832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329568376"/>
+        <c:axId val="44504576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329567984"/>
+        <c:crossAx val="44168832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1929,7 +1924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329567984"/>
+        <c:axId val="44168832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329568376"/>
+        <c:crossAx val="44504576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2016,7 +2011,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,7 +2039,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16919.333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,11 +2054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329568768"/>
-        <c:axId val="329569160"/>
+        <c:axId val="44505088"/>
+        <c:axId val="44441600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329568768"/>
+        <c:axId val="44505088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329569160"/>
+        <c:crossAx val="44441600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329569160"/>
+        <c:axId val="44441600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329568768"/>
+        <c:crossAx val="44505088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,11 +2206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329569944"/>
-        <c:axId val="329570336"/>
+        <c:axId val="44506624"/>
+        <c:axId val="44445056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329569944"/>
+        <c:axId val="44506624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329570336"/>
+        <c:crossAx val="44445056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2233,7 +2228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329570336"/>
+        <c:axId val="44445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +2239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329569944"/>
+        <c:crossAx val="44506624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2363,11 +2358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331090656"/>
-        <c:axId val="331086736"/>
+        <c:axId val="44757504"/>
+        <c:axId val="44447360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331090656"/>
+        <c:axId val="44757504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331086736"/>
+        <c:crossAx val="44447360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2385,7 +2380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331086736"/>
+        <c:axId val="44447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,7 +2391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331090656"/>
+        <c:crossAx val="44757504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2515,11 +2510,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331090264"/>
-        <c:axId val="331082816"/>
+        <c:axId val="44758016"/>
+        <c:axId val="44318720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331090264"/>
+        <c:axId val="44758016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,7 +2524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331082816"/>
+        <c:crossAx val="44318720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2537,7 +2532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331082816"/>
+        <c:axId val="44318720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331090264"/>
+        <c:crossAx val="44758016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,7 +2619,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>839.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,7 +2647,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,11 +2662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331081640"/>
-        <c:axId val="331082032"/>
+        <c:axId val="44759040"/>
+        <c:axId val="44322176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331081640"/>
+        <c:axId val="44759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331082032"/>
+        <c:crossAx val="44322176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2689,7 +2684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331082032"/>
+        <c:axId val="44322176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331081640"/>
+        <c:crossAx val="44759040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2819,11 +2814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="326753744"/>
-        <c:axId val="326753352"/>
+        <c:axId val="43298816"/>
+        <c:axId val="41883264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="326753744"/>
+        <c:axId val="43298816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326753352"/>
+        <c:crossAx val="41883264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2841,7 +2836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326753352"/>
+        <c:axId val="41883264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326753744"/>
+        <c:crossAx val="43298816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2928,7 +2923,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1581.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,7 +2951,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3173.4666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,11 +2966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331087520"/>
-        <c:axId val="331088304"/>
+        <c:axId val="44760576"/>
+        <c:axId val="44324480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331087520"/>
+        <c:axId val="44760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +2980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331088304"/>
+        <c:crossAx val="44324480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2993,7 +2988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331088304"/>
+        <c:axId val="44324480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +2999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331087520"/>
+        <c:crossAx val="44760576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3080,7 +3075,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,7 +3103,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,11 +3118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331082424"/>
-        <c:axId val="331086344"/>
+        <c:axId val="123346944"/>
+        <c:axId val="100032512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331082424"/>
+        <c:axId val="123346944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331086344"/>
+        <c:crossAx val="100032512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3145,7 +3140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331086344"/>
+        <c:axId val="100032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331082424"/>
+        <c:crossAx val="123346944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3275,11 +3270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331088696"/>
-        <c:axId val="331083208"/>
+        <c:axId val="123348480"/>
+        <c:axId val="100035968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331088696"/>
+        <c:axId val="123348480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,7 +3284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331083208"/>
+        <c:crossAx val="100035968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3297,7 +3292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331083208"/>
+        <c:axId val="100035968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +3303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331088696"/>
+        <c:crossAx val="123348480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3427,11 +3422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331083600"/>
-        <c:axId val="331083992"/>
+        <c:axId val="123349504"/>
+        <c:axId val="100038272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331083600"/>
+        <c:axId val="123349504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3441,7 +3436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331083992"/>
+        <c:crossAx val="100038272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3449,7 +3444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331083992"/>
+        <c:axId val="100038272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +3455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331083600"/>
+        <c:crossAx val="123349504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3579,11 +3574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331084384"/>
-        <c:axId val="331091832"/>
+        <c:axId val="123350016"/>
+        <c:axId val="99704832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331084384"/>
+        <c:axId val="123350016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +3588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331091832"/>
+        <c:crossAx val="99704832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3601,7 +3596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331091832"/>
+        <c:axId val="99704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +3607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331084384"/>
+        <c:crossAx val="123350016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3716,7 +3711,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1899.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,11 +3726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331080072"/>
-        <c:axId val="331091440"/>
+        <c:axId val="99927552"/>
+        <c:axId val="99708288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331080072"/>
+        <c:axId val="99927552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3745,7 +3740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331091440"/>
+        <c:crossAx val="99708288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3753,7 +3748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331091440"/>
+        <c:axId val="99708288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331080072"/>
+        <c:crossAx val="99927552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3840,7 +3835,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1517.2666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,7 +3863,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3431.4333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,11 +3878,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331085952"/>
-        <c:axId val="331080856"/>
+        <c:axId val="99929600"/>
+        <c:axId val="99710592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331085952"/>
+        <c:axId val="99929600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +3892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331080856"/>
+        <c:crossAx val="99710592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3905,7 +3900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331080856"/>
+        <c:axId val="99710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3916,7 +3911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331085952"/>
+        <c:crossAx val="99929600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3992,7 +3987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>601.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,7 +4015,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19610.666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,11 +4030,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331089088"/>
-        <c:axId val="331091048"/>
+        <c:axId val="123043840"/>
+        <c:axId val="123224064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331089088"/>
+        <c:axId val="123043840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,7 +4044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331091048"/>
+        <c:crossAx val="123224064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4057,7 +4052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331091048"/>
+        <c:axId val="123224064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,7 +4063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331089088"/>
+        <c:crossAx val="123043840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4187,11 +4182,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331098888"/>
-        <c:axId val="331096536"/>
+        <c:axId val="123045376"/>
+        <c:axId val="123227520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331098888"/>
+        <c:axId val="123045376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4201,7 +4196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331096536"/>
+        <c:crossAx val="123227520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4209,7 +4204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331096536"/>
+        <c:axId val="123227520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,7 +4215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331098888"/>
+        <c:crossAx val="123045376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4339,11 +4334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331097320"/>
-        <c:axId val="331099280"/>
+        <c:axId val="123046400"/>
+        <c:axId val="123229824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331097320"/>
+        <c:axId val="123046400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331099280"/>
+        <c:crossAx val="123229824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4361,7 +4356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331099280"/>
+        <c:axId val="123229824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,7 +4367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331097320"/>
+        <c:crossAx val="123046400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4491,11 +4486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="283992408"/>
-        <c:axId val="329556616"/>
+        <c:axId val="43299328"/>
+        <c:axId val="43220992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="283992408"/>
+        <c:axId val="43299328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4505,7 +4500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329556616"/>
+        <c:crossAx val="43220992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4513,7 +4508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329556616"/>
+        <c:axId val="43220992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4524,7 +4519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283992408"/>
+        <c:crossAx val="43299328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4643,11 +4638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331098104"/>
-        <c:axId val="331094968"/>
+        <c:axId val="123046912"/>
+        <c:axId val="128671744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331098104"/>
+        <c:axId val="123046912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,7 +4652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331094968"/>
+        <c:crossAx val="128671744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4665,7 +4660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331094968"/>
+        <c:axId val="128671744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4676,7 +4671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331098104"/>
+        <c:crossAx val="123046912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4752,7 +4747,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,7 +4775,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>882.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,11 +4790,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329566808"/>
-        <c:axId val="329567200"/>
+        <c:axId val="43300864"/>
+        <c:axId val="43224448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329566808"/>
+        <c:axId val="43300864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,7 +4804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329567200"/>
+        <c:crossAx val="43224448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4817,7 +4812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329567200"/>
+        <c:axId val="43224448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,7 +4823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329566808"/>
+        <c:crossAx val="43300864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4904,7 +4899,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>567.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4932,7 +4927,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>748.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4947,11 +4942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329565240"/>
-        <c:axId val="329556224"/>
+        <c:axId val="43299840"/>
+        <c:axId val="43226752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329565240"/>
+        <c:axId val="43299840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,7 +4956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329556224"/>
+        <c:crossAx val="43226752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4969,7 +4964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329556224"/>
+        <c:axId val="43226752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,7 +4975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329565240"/>
+        <c:crossAx val="43299840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5056,7 +5051,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1330.8999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5084,7 +5079,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17182.333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5099,11 +5094,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329560928"/>
-        <c:axId val="329561320"/>
+        <c:axId val="43302400"/>
+        <c:axId val="42508288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329560928"/>
+        <c:axId val="43302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,7 +5108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329561320"/>
+        <c:crossAx val="42508288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5121,7 +5116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329561320"/>
+        <c:axId val="42508288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5132,7 +5127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329560928"/>
+        <c:crossAx val="43302400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5208,7 +5203,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>792.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,7 +5231,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2782.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5251,11 +5246,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329561712"/>
-        <c:axId val="329558968"/>
+        <c:axId val="43671552"/>
+        <c:axId val="42511744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329561712"/>
+        <c:axId val="43671552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5265,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329558968"/>
+        <c:crossAx val="42511744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5273,7 +5268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329558968"/>
+        <c:axId val="42511744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5284,7 +5279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329561712"/>
+        <c:crossAx val="43671552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5360,7 +5355,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1761.9333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5388,7 +5383,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3014.8333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5403,11 +5398,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329566416"/>
-        <c:axId val="329564064"/>
+        <c:axId val="43673088"/>
+        <c:axId val="42514048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329566416"/>
+        <c:axId val="43673088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,7 +5412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329564064"/>
+        <c:crossAx val="42514048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5425,7 +5420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329564064"/>
+        <c:axId val="42514048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5436,7 +5431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329566416"/>
+        <c:crossAx val="43673088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5512,7 +5507,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>614.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5540,7 +5535,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14755.333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5555,11 +5550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329557400"/>
-        <c:axId val="329565632"/>
+        <c:axId val="43673600"/>
+        <c:axId val="43630592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329557400"/>
+        <c:axId val="43673600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +5564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329565632"/>
+        <c:crossAx val="43630592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5577,7 +5572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329565632"/>
+        <c:axId val="43630592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,7 +5583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329557400"/>
+        <c:crossAx val="43673600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7095,7 +7090,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7130,7 +7125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7357,7 +7352,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,60 +7409,90 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="e">
+      <c r="I3" s="1">
+        <v>1919</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1820</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1960</v>
+      </c>
+      <c r="L3" s="1">
         <f>AVERAGE(I3:K3)</f>
-        <v>#DIV/0!</v>
+        <v>1899.6666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="e">
+      <c r="B4" s="1">
+        <v>1416.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1552.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1583.5</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E5" si="0">AVERAGE(B4:D4)</f>
-        <v>#DIV/0!</v>
+        <v>1517.2666666666667</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="e">
+      <c r="I4" s="1">
+        <v>3267.7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3057.9</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3968.7</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="1">AVERAGE(I4:K4)</f>
-        <v>#DIV/0!</v>
+        <v>3431.4333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="e">
+      <c r="B5" s="1">
+        <v>586</v>
+      </c>
+      <c r="C5" s="1">
+        <v>600</v>
+      </c>
+      <c r="D5" s="1">
+        <v>618</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>601.33333333333337</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="e">
+      <c r="I5" s="1">
+        <v>19641</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18980</v>
+      </c>
+      <c r="K5" s="1">
+        <v>20211</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>19610.666666666668</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,7 +7660,7 @@
         <v>987</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L4:L5" si="1">AVERAGE(I5:K5)</f>
+        <f t="shared" ref="L5" si="1">AVERAGE(I5:K5)</f>
         <v>975</v>
       </c>
     </row>
@@ -7658,7 +7683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -7828,7 +7853,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7873,72 +7898,106 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="e">
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>478</v>
+      </c>
+      <c r="D3" s="1">
+        <v>489</v>
+      </c>
+      <c r="E3" s="1">
         <f>AVERAGE(B3:D3)</f>
-        <v>#DIV/0!</v>
+        <v>489</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="e">
+      <c r="I3" s="1">
+        <v>879</v>
+      </c>
+      <c r="J3" s="1">
+        <v>890</v>
+      </c>
+      <c r="K3" s="1">
+        <v>878</v>
+      </c>
+      <c r="L3" s="1">
         <f>AVERAGE(I3:K3)</f>
-        <v>#DIV/0!</v>
+        <v>882.33333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1">
+        <v>603</v>
+      </c>
+      <c r="C4" s="1">
+        <v>532</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="e">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E5" si="0">AVERAGE(B4:D4)</f>
-        <v>#DIV/0!</v>
+        <v>567.5</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="e">
+      <c r="I4" s="1">
+        <v>748.4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>748.4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>748.4</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="1">AVERAGE(I4:K4)</f>
-        <v>#DIV/0!</v>
+        <v>748.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="e">
+      <c r="B5" s="1">
+        <v>1604.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1194.4000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1193.8</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1330.8999999999999</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="e">
+      <c r="I5" s="1">
+        <v>17192</v>
+      </c>
+      <c r="J5" s="1">
+        <v>17156</v>
+      </c>
+      <c r="K5" s="1">
+        <v>17199</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17182.333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7961,7 +8020,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8006,72 +8065,108 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="e">
+      <c r="B3" s="1">
+        <v>780</v>
+      </c>
+      <c r="C3" s="1">
+        <v>800</v>
+      </c>
+      <c r="D3" s="1">
+        <v>797</v>
+      </c>
+      <c r="E3" s="1">
         <f>AVERAGE(B3:D3)</f>
-        <v>#DIV/0!</v>
+        <v>792.33333333333337</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="e">
+      <c r="I3" s="1">
+        <v>2689</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2759</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2899</v>
+      </c>
+      <c r="L3" s="1">
         <f>AVERAGE(I3:K3)</f>
-        <v>#DIV/0!</v>
+        <v>2782.3333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="e">
+      <c r="B4" s="1">
+        <v>1367.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1960.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1958.6</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E5" si="0">AVERAGE(B4:D4)</f>
-        <v>#DIV/0!</v>
+        <v>1761.9333333333332</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="e">
+      <c r="I4" s="1">
+        <v>3011.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3021.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3011.5</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="1">AVERAGE(I4:K4)</f>
-        <v>#DIV/0!</v>
+        <v>3014.8333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="e">
+      <c r="B5" s="1">
+        <v>524</v>
+      </c>
+      <c r="C5" s="1">
+        <v>661</v>
+      </c>
+      <c r="D5" s="1">
+        <v>658</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>614.33333333333337</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="e">
+      <c r="I5" s="1">
+        <v>14788</v>
+      </c>
+      <c r="J5" s="1">
+        <v>14690</v>
+      </c>
+      <c r="K5" s="1">
+        <v>14788</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>14755.333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8093,8 +8188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8263,7 +8358,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8308,72 +8403,108 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="e">
+      <c r="B3" s="1">
+        <v>710</v>
+      </c>
+      <c r="C3" s="1">
+        <v>650</v>
+      </c>
+      <c r="D3" s="1">
+        <v>660</v>
+      </c>
+      <c r="E3" s="1">
         <f>AVERAGE(B3:D3)</f>
-        <v>#DIV/0!</v>
+        <v>673.33333333333337</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="e">
+      <c r="I3" s="1">
+        <v>2185</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2220</v>
+      </c>
+      <c r="L3" s="1">
         <f>AVERAGE(I3:K3)</f>
-        <v>#DIV/0!</v>
+        <v>2166.6666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="e">
+      <c r="B4" s="1">
+        <v>1766.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1766.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1827</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E5" si="0">AVERAGE(B4:D4)</f>
-        <v>#DIV/0!</v>
+        <v>1786.3999999999999</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="e">
+      <c r="I4" s="1">
+        <v>3414.7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3400.7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3430.7</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="1">AVERAGE(I4:K4)</f>
-        <v>#DIV/0!</v>
+        <v>3415.3666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="e">
+      <c r="B5" s="1">
+        <v>652</v>
+      </c>
+      <c r="C5" s="1">
+        <v>652</v>
+      </c>
+      <c r="D5" s="1">
+        <v>631</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>645</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="e">
+      <c r="I5" s="1">
+        <v>16918</v>
+      </c>
+      <c r="J5" s="1">
+        <v>16890</v>
+      </c>
+      <c r="K5" s="1">
+        <v>16950</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>16919.333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8565,7 +8696,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8610,72 +8741,108 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="e">
+      <c r="B3" s="1">
+        <v>890</v>
+      </c>
+      <c r="C3" s="1">
+        <v>750</v>
+      </c>
+      <c r="D3" s="1">
+        <v>878</v>
+      </c>
+      <c r="E3" s="1">
         <f>AVERAGE(B3:D3)</f>
-        <v>#DIV/0!</v>
+        <v>839.33333333333337</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="e">
+      <c r="I3" s="1">
+        <v>2221</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2230</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2221</v>
+      </c>
+      <c r="L3" s="1">
         <f>AVERAGE(I3:K3)</f>
-        <v>#DIV/0!</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="e">
+      <c r="B4" s="1">
+        <v>1365.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1684.6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1695</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E5" si="0">AVERAGE(B4:D4)</f>
-        <v>#DIV/0!</v>
+        <v>1581.8</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="e">
+      <c r="I4" s="1">
+        <v>3169.8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3180.8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3169.8</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="1">AVERAGE(I4:K4)</f>
-        <v>#DIV/0!</v>
+        <v>3173.4666666666672</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="e">
+      <c r="B5" s="1">
+        <v>540</v>
+      </c>
+      <c r="C5" s="1">
+        <v>596</v>
+      </c>
+      <c r="D5" s="1">
+        <v>583</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>573</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="e">
+      <c r="I5" s="1">
+        <v>17073</v>
+      </c>
+      <c r="J5" s="1">
+        <v>17073</v>
+      </c>
+      <c r="K5" s="1">
+        <v>17073</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17073</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
